--- a/vedom.xlsx
+++ b/vedom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BF94-1ACD-4799-8FFA-2D31B4731ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2230C2-13F9-4B9A-BBC0-43551FF639C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>Ведомость №..........</t>
-  </si>
-  <si>
     <t xml:space="preserve">Предприятие LTD «AVTOTRANS » </t>
-  </si>
-  <si>
-    <t>Маршрут:    Тбилиси-Москва</t>
   </si>
   <si>
     <t>№</t>
@@ -46,10 +40,16 @@
     <t>Конечный пункт</t>
   </si>
   <si>
-    <t>Водители: ______________  _________________________</t>
+    <t>Маршрут:    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
   </si>
   <si>
-    <t>Время отправления 11ºº Дата «_______» __________________2023г.</t>
+    <t>Водители: _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _    _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _</t>
+  </si>
+  <si>
+    <t>Ведомость №_ _ _ _ _ _ _ _</t>
+  </si>
+  <si>
+    <t>Время отправления _ _ _ _ _ _ _ _ _ _ _ _ Дата «_ _ _ _ _ _» _ _ _ _ _ _ _ _ _ _ _ _ _ 20_ _ _ _ _г.</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -77,7 +77,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -524,30 +524,30 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -591,7 +591,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -613,7 +613,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>33</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>55</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>56</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>58</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>59</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>60</v>
       </c>

--- a/vedom.xlsx
+++ b/vedom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2230C2-13F9-4B9A-BBC0-43551FF639C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CE2230C2-13F9-4B9A-BBC0-43551FF639C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D96A65C-7327-4A40-88DB-2DC396FAF83D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>№</t>
-  </si>
-  <si>
-    <t>№билета</t>
   </si>
   <si>
     <t>Тариф</t>
@@ -49,18 +46,21 @@
     <t>Ведомость №_ _ _ _ _ _ _ _</t>
   </si>
   <si>
-    <t>Время отправления _ _ _ _ _ _ _ _ _ _ _ _ Дата «_ _ _ _ _ _» _ _ _ _ _ _ _ _ _ _ _ _ _ 20_ _ _ _ _г.</t>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Время отправления _ _ _ _ __ _ _ _ Дата «_ _ _ _» _ _ _ _ _ 20_ _ _ _ _г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Sylfaen"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Sylfaen"/>
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -77,7 +77,16 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -127,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,6 +147,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -166,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,9 +221,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +256,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +308,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,110 +504,110 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="4.125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -569,7 +618,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -580,7 +629,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -591,7 +640,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -602,7 +651,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -613,7 +662,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -624,7 +673,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -635,7 +684,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -646,7 +695,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -657,7 +706,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -668,7 +717,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -679,7 +728,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -690,7 +739,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -701,7 +750,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -712,7 +761,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -723,7 +772,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -734,7 +783,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -745,7 +794,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -756,7 +805,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -767,7 +816,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -778,7 +827,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -789,7 +838,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -800,7 +849,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -811,7 +860,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -822,7 +871,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -833,7 +882,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -844,7 +893,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -855,7 +904,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -866,7 +915,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -877,7 +926,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -888,7 +937,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -899,7 +948,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>33</v>
       </c>
@@ -910,7 +959,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -921,7 +970,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -932,7 +981,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -943,7 +992,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -954,7 +1003,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -965,7 +1014,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -976,7 +1025,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -987,7 +1036,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -998,7 +1047,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -1009,7 +1058,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -1020,7 +1069,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -1031,7 +1080,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -1042,7 +1091,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -1053,7 +1102,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -1064,7 +1113,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -1075,7 +1124,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -1086,7 +1135,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -1097,7 +1146,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -1108,7 +1157,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -1119,7 +1168,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -1130,7 +1179,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -1141,7 +1190,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>55</v>
       </c>
@@ -1152,7 +1201,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>56</v>
       </c>
@@ -1163,7 +1212,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -1174,7 +1223,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>58</v>
       </c>
@@ -1185,7 +1234,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>59</v>
       </c>
@@ -1196,7 +1245,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>60</v>
       </c>
@@ -1226,7 +1275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1238,7 +1287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vedom.xlsx
+++ b/vedom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CE2230C2-13F9-4B9A-BBC0-43551FF639C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D96A65C-7327-4A40-88DB-2DC396FAF83D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{CE2230C2-13F9-4B9A-BBC0-43551FF639C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2288BE30-309B-418C-A364-A223FDB9978D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Предприятие LTD «AVTOTRANS » </t>
-  </si>
   <si>
     <t>№</t>
   </si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Время отправления _ _ _ _ __ _ _ _ Дата «_ _ _ _» _ _ _ _ _ 20_ _ _ _ _г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предприятие LTD «VIP TOUR » </t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -564,7 +564,7 @@
     </row>
     <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -575,25 +575,25 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
